--- a/stock_historical_data/1wk/SANJIVIN.BO.xlsx
+++ b/stock_historical_data/1wk/SANJIVIN.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1164"/>
+  <dimension ref="A1:R1173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -65477,7 +65477,7 @@
         <v>23</v>
       </c>
       <c r="O1161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1161" t="n">
         <v>0</v>
@@ -65597,7 +65597,9 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
@@ -65651,7 +65653,477 @@
       <c r="Q1164" t="n">
         <v>0</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>363</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>396.9500122070312</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>363</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>375.5</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>66265</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>365</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>387.7999877929688</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>337.3999938964844</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>344.8500061035156</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>42656</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>337.9500122070312</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>366</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>327</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>347.7999877929688</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>62923</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>344</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>363</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>336</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>348.4500122070312</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>28311</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>349.5</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>349.75</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>339.3999938964844</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>30044</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>346.1499938964844</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>346.1499938964844</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>305</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>310.1499938964844</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>22207</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>303.9500122070312</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>315.9500122070312</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>274.4500122070312</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>283.7999877929688</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>57131</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>269.6499938964844</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>272.2000122070312</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>243.3999938964844</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>272.2000122070312</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>315616</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>311.6000061035156</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>271.0499877929688</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>48409</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SANJIVIN.BO.xlsx
+++ b/stock_historical_data/1wk/SANJIVIN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1173"/>
+  <dimension ref="A1:R1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -65707,7 +65707,9 @@
       <c r="Q1165" t="n">
         <v>0</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65759,7 +65761,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65811,7 +65815,9 @@
       <c r="Q1167" t="n">
         <v>1</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65863,7 +65869,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65915,7 +65923,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65967,7 +65977,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -66019,7 +66031,9 @@
       <c r="Q1171" t="n">
         <v>2</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -66071,7 +66085,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66123,7 +66139,477 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>273</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>289</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>244.75</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>264.3999938964844</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>31545</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>253.1000061035156</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>275</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>252.1000061035156</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>254.8000030517578</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>23605</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>262</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>268.9500122070312</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>266.1499938964844</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>54066</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>274</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>278</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>238.6000061035156</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>239.6999969482422</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>45918</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>238</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>267.8999938964844</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>230.3500061035156</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>246.5500030517578</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>25050</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>221.8999938964844</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>253</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>220.1000061035156</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>234.0500030517578</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>19728</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>248</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>258.8999938964844</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>231</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>251.0500030517578</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>8738</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>262</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>262.7000122070312</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>239</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>240.3999938964844</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>15413</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>249.6999969482422</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>261.7999877929688</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>232.3999938964844</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>239.3000030517578</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>12685</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
